--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F7C3F8-50BC-0B4B-A8F6-8456DA1D1D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA482AC-137E-4C4B-ACDE-95022D604BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="4140" windowWidth="46000" windowHeight="19480" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="37560" yWindow="4140" windowWidth="46000" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="209">
   <si>
     <t>Epoch</t>
   </si>
@@ -343,12 +343,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
@@ -673,10 +664,19 @@
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes</t>
   </si>
   <si>
-    <t>SPONSOR: VAC=Vacines Group</t>
-  </si>
-  <si>
     <t>Day 1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>SPONSOR: VAC=Vacines Group, SPONSOR: REG=Regulatory</t>
+  </si>
+  <si>
+    <t>Somethign Clever But New</t>
+  </si>
+  <si>
+    <t>ARMS-EPOCHS-1</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,9 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,9 +801,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -816,10 +810,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,202 +1147,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -1711,46 +1675,46 @@
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1782,98 +1746,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1899,71 +1863,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>138</v>
+      <c r="B1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1987,18 +1951,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2024,22 +1988,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2054,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -2084,116 +2048,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>153</v>
+      <c r="A12" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
@@ -2211,13 +2175,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2226,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2250,16 +2214,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2283,20 +2247,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,16 +2268,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2324,13 +2288,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,14 +2321,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>176</v>
+      <c r="A1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2372,10 +2336,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2383,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2394,10 +2358,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2426,13 +2390,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>116</v>
+      <c r="A1" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2446,13 +2410,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2466,13 +2430,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>120</v>
+      <c r="A3" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2488,7 +2452,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2504,7 +2468,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2520,54 +2484,54 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>150</v>
+      <c r="C7" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>151</v>
+      <c r="C8" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>152</v>
+      <c r="C9" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2578,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2595,10 +2559,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2634,17 +2598,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2652,21 +2616,21 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA482AC-137E-4C4B-ACDE-95022D604BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9699EB-D52B-414F-9798-05B86DD71CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="4140" windowWidth="46000" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="37540" yWindow="4120" windowWidth="46000" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
   <si>
     <t>Epoch</t>
   </si>
@@ -244,9 +244,6 @@
     <t>endpointDescription</t>
   </si>
   <si>
-    <t>endpointPurposeDescription</t>
-  </si>
-  <si>
     <t>endpointLevel</t>
   </si>
   <si>
@@ -677,6 +674,21 @@
   </si>
   <si>
     <t>ARMS-EPOCHS-1</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -748,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -769,9 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -810,10 +819,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1147,11 +1156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>208</v>
+      <c r="A1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1159,10 +1168,10 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E2"/>
@@ -1171,10 +1180,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E3"/>
@@ -1183,10 +1192,10 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E4"/>
@@ -1195,10 +1204,10 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E5"/>
@@ -1207,11 +1216,11 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>90</v>
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1219,11 +1228,11 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>91</v>
+      <c r="A7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1231,11 +1240,11 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>206</v>
+      <c r="A8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1243,11 +1252,11 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>98</v>
+      <c r="A9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1255,11 +1264,11 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>99</v>
+      <c r="A10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1267,11 +1276,11 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>100</v>
+      <c r="A11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1279,11 +1288,11 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>207</v>
+      <c r="A12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1291,10 +1300,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E13"/>
@@ -1303,11 +1312,11 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>97</v>
+      <c r="A14" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1315,40 +1324,40 @@
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1361,215 +1370,236 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1596,55 +1626,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1673,48 +1703,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1746,98 +1776,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1863,71 +1893,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1951,18 +1981,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1988,22 +2018,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2018,7 +2048,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -2048,116 +2078,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>150</v>
+      <c r="A12" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
@@ -2175,13 +2205,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2190,13 +2220,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2214,16 +2244,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2247,20 +2277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,16 +2298,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2288,17 +2318,17 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,14 +2351,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,10 +2366,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2390,13 +2420,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2410,13 +2440,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2430,13 +2460,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2450,9 +2480,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2466,9 +2496,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2482,56 +2512,56 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2542,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2559,10 +2589,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2598,17 +2628,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,21 +2646,21 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>43</v>
@@ -2672,7 +2702,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -2686,7 +2716,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9699EB-D52B-414F-9798-05B86DD71CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E1659-7956-5B43-8991-840453EB360F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37540" yWindow="4120" windowWidth="46000" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="47200" yWindow="5080" windowWidth="46000" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>organisationAddress</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
   </si>
 </sst>
 </file>
@@ -819,10 +819,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,10 +1157,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1196,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1372,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1392,61 +1392,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1627,54 +1627,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1703,48 +1703,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,97 +1777,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1894,70 +1894,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1981,18 +1981,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2004,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2034,7 +2034,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2048,13 +2048,13 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2079,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2103,41 +2103,41 @@
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2148,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2159,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
@@ -2205,13 +2205,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2220,13 +2220,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2244,16 +2244,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2278,19 +2278,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,16 +2298,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,13 +2318,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2352,13 +2352,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2421,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -2518,39 +2518,39 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2589,10 +2589,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2629,16 +2629,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2646,21 +2646,21 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2688,44 +2688,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2752,38 +2752,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E1659-7956-5B43-8991-840453EB360F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8420CB5F-B5D9-8548-8B22-8F06DCC8728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47200" yWindow="5080" windowWidth="46000" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="37280" yWindow="6400" windowWidth="46000" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="255">
   <si>
     <t>Epoch</t>
   </si>
@@ -181,30 +182,15 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
@@ -689,13 +675,154 @@
   </si>
   <si>
     <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>SNOMED:345678=Indication2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,6 +860,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -760,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -819,11 +952,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,10 +1292,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1217,10 +1352,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1229,10 +1364,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1241,10 +1376,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1253,10 +1388,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1265,10 +1400,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1277,10 +1412,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1289,10 +1424,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1301,7 +1436,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1313,10 +1448,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1369,6 +1504,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -1392,61 +1585,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1627,54 +1820,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1703,48 +1896,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1777,97 +1970,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +2069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1894,70 +2087,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1981,18 +2174,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2048,13 +2241,13 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2272,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2090,10 +2283,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2103,41 +2296,41 @@
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2148,7 +2341,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2159,7 +2352,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2167,10 +2360,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2178,7 +2371,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2187,7 +2380,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
@@ -2205,13 +2398,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2220,13 +2413,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2244,16 +2437,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2278,19 +2471,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,16 +2491,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,13 +2511,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2352,13 +2545,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2559,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,10 +2570,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2614,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2441,10 +2634,10 @@
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -2461,10 +2654,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -2518,39 +2711,39 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2561,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2589,10 +2782,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2629,16 +2822,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2646,21 +2839,21 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2673,59 +2866,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B036AB7-A71B-4A43-8B18-A183F87B121B}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2734,56 +3080,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8420CB5F-B5D9-8548-8B22-8F06DCC8728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299A894-C4B0-864E-8FF3-F27AEBDC9BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37280" yWindow="6400" windowWidth="46000" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="37280" yWindow="6400" windowWidth="46000" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="258">
   <si>
     <t>Epoch</t>
   </si>
@@ -194,30 +194,12 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
-    <t>18 years</t>
-  </si>
-  <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>plannedMaximumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -816,6 +798,33 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>60 years</t>
   </si>
 </sst>
 </file>
@@ -948,6 +957,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -957,8 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,10 +1301,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1352,10 +1361,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1364,10 +1373,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1376,10 +1385,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1388,10 +1397,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1400,10 +1409,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1412,10 +1421,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1424,10 +1433,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1436,7 +1445,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1448,10 +1457,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1505,55 +1514,72 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1585,61 +1611,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1820,54 +1846,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1896,48 +1922,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1970,97 +1996,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2087,70 +2113,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2174,18 +2200,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2241,13 +2267,13 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2272,115 +2298,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
@@ -2398,13 +2424,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2413,13 +2439,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2471,19 +2497,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2491,16 +2517,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2511,13 +2537,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,13 +2571,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2559,10 +2585,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,10 +2596,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2581,10 +2607,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2614,10 +2640,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2634,10 +2660,10 @@
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -2654,10 +2680,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -2711,39 +2737,39 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2754,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2765,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2782,10 +2808,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2822,16 +2848,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,21 +2865,21 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,7 +2895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B036AB7-A71B-4A43-8B18-A183F87B121B}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2899,179 +2925,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" t="s">
         <v>229</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>231</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="L2" t="s">
         <v>233</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>234</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>235</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>236</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>237</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
         <v>238</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="M2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" t="s">
-        <v>244</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" t="s">
         <v>246</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L3" t="s">
         <v>247</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" t="s">
         <v>248</v>
       </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L3" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P3" t="s">
-        <v>254</v>
-      </c>
       <c r="Q3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3096,13 +3122,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>44</v>
@@ -3110,13 +3136,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>45</v>
@@ -3124,16 +3150,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299A894-C4B0-864E-8FF3-F27AEBDC9BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA21F7-3788-F04C-9783-08D9390F6872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37280" yWindow="6400" windowWidth="46000" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="256">
   <si>
     <t>Epoch</t>
   </si>
@@ -809,22 +809,16 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
     <t>POP1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
-    <t>60 years</t>
+    <t>30 ..60 years</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
   </si>
 </sst>
 </file>
@@ -963,10 +957,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,11 +1520,11 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>249</v>
       </c>
@@ -1550,21 +1544,18 @@
         <v>251</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="B2" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" t="s">
-        <v>255</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1573,12 +1564,9 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2322,34 +2310,34 @@
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -2463,16 +2451,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA21F7-3788-F04C-9783-08D9390F6872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3289399-7FE3-DA47-87A4-603A6B830A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37280" yWindow="6400" windowWidth="46000" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="17" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="256">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
   <si>
     <t>Screening</t>
   </si>
@@ -62,15 +60,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -86,15 +75,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -455,12 +435,6 @@
     <t>E3</t>
   </si>
   <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
     <t>BC/Procedure/Timeline</t>
   </si>
   <si>
@@ -605,15 +579,6 @@
     <t>Completed treatment</t>
   </si>
   <si>
-    <t>N: 2 Days</t>
-  </si>
-  <si>
-    <t>P: 3 Days</t>
-  </si>
-  <si>
-    <t>12..12 Hours</t>
-  </si>
-  <si>
     <t>BC: Body Weight</t>
   </si>
   <si>
@@ -819,6 +784,102 @@
   </si>
   <si>
     <t>plannedAge</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>12..12 hours</t>
+  </si>
+  <si>
+    <t>TREAT</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
   </si>
 </sst>
 </file>
@@ -957,10 +1018,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,9 +1041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1020,7 +1081,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1126,7 +1187,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1268,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1295,10 +1356,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1307,10 +1368,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1319,10 +1380,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1331,10 +1392,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1343,10 +1404,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1355,10 +1416,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1367,10 +1428,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1379,10 +1440,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1391,10 +1452,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1403,10 +1464,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1415,10 +1476,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1427,10 +1488,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1439,10 +1500,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1451,10 +1512,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1507,10 +1568,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1526,36 +1649,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1564,10 +1687,10 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -1599,61 +1722,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1814,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1834,54 +1957,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +2012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1910,48 +2033,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1964,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1984,97 +2107,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2101,70 +2224,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2188,18 +2311,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2226,42 +2349,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2286,10 +2409,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2297,10 +2420,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2308,43 +2431,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2352,10 +2475,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2363,10 +2486,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -2374,10 +2497,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -2385,7 +2508,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2394,46 +2517,46 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2451,16 +2574,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2485,53 +2608,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2559,46 +2682,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2610,11 +2733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2628,187 +2751,184 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>253</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2818,6 +2938,134 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559B8A7-779C-9646-84DB-C72DBF3D3E5C}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2836,38 +3084,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2879,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B036AB7-A71B-4A43-8B18-A183F87B121B}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2913,241 +3161,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="L1" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>210</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
+      <c r="P2" t="s">
         <v>225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="S2" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O2" t="s">
-        <v>236</v>
-      </c>
-      <c r="P2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L3" t="s">
-        <v>247</v>
-      </c>
-      <c r="M3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O3" t="s">
-        <v>236</v>
-      </c>
-      <c r="P3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" t="s">
-        <v>238</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3289399-7FE3-DA47-87A4-603A6B830A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73D204F-6DAA-5C4B-90FF-8AC416514771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
   <si>
     <t>Screening</t>
   </si>
@@ -696,18 +696,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -747,12 +741,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -880,6 +868,15 @@
   </si>
   <si>
     <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1015,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,9 +1038,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1081,7 +1078,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1187,7 +1184,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1329,7 +1326,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,7 +1646,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>180</v>
@@ -1661,13 +1658,13 @@
         <v>190</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>40</v>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1687,7 +1684,7 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
@@ -2433,34 +2430,34 @@
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -2574,16 +2571,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2733,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -2760,13 +2757,13 @@
         <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2783,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2800,7 +2797,7 @@
         <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2815,34 +2812,34 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2852,7 +2849,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -2868,7 +2865,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>124</v>
@@ -2967,97 +2964,97 @@
         <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
         <v>264</v>
-      </c>
-      <c r="B3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
         <v>265</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>270</v>
       </c>
-      <c r="C4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="E4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3131,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B036AB7-A71B-4A43-8B18-A183F87B121B}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,108 +3229,108 @@
         <v>213</v>
       </c>
       <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" t="s">
         <v>215</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" t="s">
         <v>216</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>217</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>218</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>219</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>220</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>221</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>222</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>223</v>
-      </c>
-      <c r="O2" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" t="s">
-        <v>225</v>
       </c>
       <c r="Q2" t="s">
         <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
       </c>
       <c r="D3" t="s">
         <v>213</v>
       </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" t="s">
         <v>232</v>
-      </c>
-      <c r="I3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M3" t="s">
-        <v>222</v>
-      </c>
-      <c r="N3" t="s">
-        <v>223</v>
-      </c>
-      <c r="O3" t="s">
-        <v>224</v>
-      </c>
-      <c r="P3" t="s">
-        <v>236</v>
       </c>
       <c r="Q3" t="s">
         <v>106</v>
       </c>
       <c r="R3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73D204F-6DAA-5C4B-90FF-8AC416514771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40796AD6-3DFC-784F-9410-DE704D6AEDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1015,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,9 +1038,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1078,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1184,7 +1184,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1326,7 +1326,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1353,10 +1353,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1581,13 +1581,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
         <v>191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>38</v>
@@ -1609,16 +1609,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1646,25 +1646,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>235</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>40</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>237</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1684,7 +1684,7 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1719,34 +1719,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1762,18 +1762,18 @@
         <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1954,54 +1954,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2030,48 +2030,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2104,97 +2104,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2221,70 +2221,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2308,18 +2308,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2375,13 +2375,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2406,10 +2406,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2430,41 +2430,41 @@
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2475,7 +2475,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2486,7 +2486,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>25</v>
@@ -2532,13 +2532,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2547,13 +2547,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2571,16 +2571,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2605,19 +2605,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,16 +2625,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2645,13 +2645,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,13 +2679,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2693,10 +2693,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2704,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2748,30 +2748,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>36</v>
@@ -2780,24 +2780,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2812,34 +2812,34 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2849,7 +2849,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -2865,16 +2865,16 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -2913,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -2952,109 +2952,109 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
         <v>257</v>
       </c>
-      <c r="E2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>258</v>
-      </c>
-      <c r="H2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
         <v>262</v>
       </c>
-      <c r="C3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
         <v>263</v>
-      </c>
-      <c r="E3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
         <v>267</v>
       </c>
-      <c r="D4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="H4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3081,16 +3081,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,21 +3098,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3128,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B036AB7-A71B-4A43-8B18-A183F87B121B}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3158,179 +3158,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="E2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" t="s">
         <v>214</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" t="s">
         <v>215</v>
       </c>
-      <c r="H2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>216</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>217</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>218</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>219</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>220</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>221</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>222</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
         <v>223</v>
       </c>
-      <c r="Q2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
         <v>226</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>227</v>
       </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" t="s">
         <v>214</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" t="s">
         <v>215</v>
       </c>
-      <c r="H3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" t="s">
-        <v>216</v>
-      </c>
       <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" t="s">
         <v>229</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>230</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" t="s">
         <v>231</v>
       </c>
-      <c r="M3" t="s">
-        <v>220</v>
-      </c>
-      <c r="N3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" t="s">
-        <v>232</v>
-      </c>
       <c r="Q3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40796AD6-3DFC-784F-9410-DE704D6AEDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6B50C-BC1C-F449-B82F-4049BE3A3E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="275">
   <si>
     <t>Screening</t>
   </si>
@@ -1015,10 +1015,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1699,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2430,34 +2430,34 @@
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -2571,16 +2571,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2730,11 +2730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A1:XFD14"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,9 +2889,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2909,9 +2907,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>176</v>
       </c>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6B50C-BC1C-F449-B82F-4049BE3A3E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B62F5-C907-C142-AD45-4250194A3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
   <si>
     <t>Screening</t>
   </si>
@@ -877,13 +877,16 @@
   </si>
   <si>
     <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -909,14 +912,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -954,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -982,10 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1009,16 +1000,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1343,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1364,7 +1355,7 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1376,10 +1367,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E3"/>
@@ -1388,7 +1379,7 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1400,7 +1391,7 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1412,7 +1403,7 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1424,7 +1415,7 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1436,10 +1427,10 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>180</v>
       </c>
       <c r="E8"/>
@@ -1448,7 +1439,7 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1460,7 +1451,7 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1472,7 +1463,7 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1484,7 +1475,7 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1496,10 +1487,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E13"/>
@@ -1508,7 +1499,7 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1580,16 +1571,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1645,28 +1636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1718,37 +1709,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1936,49 +1927,52 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1988,21 +1982,27 @@
       <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,22 +2032,22 @@
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2103,28 +2103,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2220,19 +2220,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2345,22 +2345,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2405,115 +2405,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2571,16 +2571,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2604,19 +2604,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2678,13 +2678,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -2747,13 +2747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2767,13 +2767,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2787,13 +2787,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2807,8 +2807,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2822,8 +2822,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2837,8 +2837,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D6" s="2"/>
@@ -2848,7 +2848,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2864,7 +2864,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2878,13 +2878,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3076,16 +3076,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3153,61 +3153,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       <c r="E2" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G2" t="s">
@@ -3266,7 +3266,7 @@
       <c r="R2" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="21" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G3" t="s">
@@ -3325,7 +3325,7 @@
       <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="21" t="s">
         <v>224</v>
       </c>
     </row>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B62F5-C907-C142-AD45-4250194A3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31618CAA-657D-604C-9500-0F7F5176430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49360" yWindow="3300" windowWidth="46000" windowHeight="19480" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="40180" yWindow="3540" windowWidth="46000" windowHeight="19480" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="278">
   <si>
     <t>Screening</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1941,9 +1947,10 @@
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
@@ -1971,8 +1978,11 @@
       <c r="I1" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2000,8 +2010,11 @@
       <c r="I2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
     </row>
   </sheetData>
@@ -2430,34 +2443,34 @@
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2571,16 +2584,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A054FD0-2023-3047-9451-393DDB8F0431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE513EFF-0502-FC47-BC04-C3B1B5FB4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51880" yWindow="500" windowWidth="49920" windowHeight="27780" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51340" yWindow="500" windowWidth="49920" windowHeight="27780" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="279">
   <si>
     <t>Screening</t>
   </si>
@@ -139,9 +139,6 @@
     <t>interventionModel</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>Interventional Study</t>
   </si>
   <si>
@@ -887,6 +884,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1011,12 +1014,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,7 +1332,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,10 +1348,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1390,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1402,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1411,10 +1408,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1423,10 +1420,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1435,10 +1432,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1447,10 +1444,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1459,10 +1456,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1471,10 +1468,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1483,10 +1480,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -1507,10 +1504,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1596,179 +1593,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" t="s">
         <v>209</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>211</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>212</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>213</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>214</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>215</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>216</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>217</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>222</v>
       </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
         <v>209</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" t="s">
         <v>210</v>
       </c>
-      <c r="H3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" t="s">
-        <v>211</v>
-      </c>
       <c r="J3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" t="s">
         <v>224</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>225</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" t="s">
         <v>226</v>
       </c>
-      <c r="M3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
-        <v>227</v>
-      </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R3" t="s">
+        <v>218</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1793,44 +1790,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s">
-        <v>187</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1858,36 +1855,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>230</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
         <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1896,10 +1893,10 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1931,61 +1928,61 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2167,66 +2164,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,48 +2255,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2332,97 +2329,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2449,70 +2446,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2536,18 +2533,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2574,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2608,22 +2605,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2640,10 +2637,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2653,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2668,10 +2665,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2679,54 +2676,54 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2734,10 +2731,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2748,7 +2745,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2756,10 +2753,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2767,82 +2764,116 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2867,19 +2898,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2887,16 +2918,16 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2907,13 +2938,13 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2941,13 +2972,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,10 +2986,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,10 +2997,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3010,56 +3041,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3071,37 +3102,37 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3111,7 +3142,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3127,16 +3158,16 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3147,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3156,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3171,10 +3202,10 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3210,109 +3241,109 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
         <v>252</v>
       </c>
-      <c r="E2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>253</v>
-      </c>
-      <c r="H2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
         <v>258</v>
-      </c>
-      <c r="E3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
         <v>261</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
         <v>262</v>
       </c>
-      <c r="D4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="H4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3339,16 +3370,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,21 +3387,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE513EFF-0502-FC47-BC04-C3B1B5FB4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F444504-DF22-AD49-B482-656EAE3624B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51340" yWindow="500" windowWidth="49920" windowHeight="27780" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -862,9 +862,6 @@
     <t>Experimental Intervention</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>50</v>
@@ -2173,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>52</v>
@@ -2191,7 +2191,7 @@
         <v>53</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2605,10 +2605,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>13</v>
@@ -2620,7 +2620,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>80</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>

--- a/tests/integration_test_files/arms_epochs.xlsx
+++ b/tests/integration_test_files/arms_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F444504-DF22-AD49-B482-656EAE3624B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BEA26-F136-1948-A6DC-23959AAACFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>SNOMED=January 31, 2018</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>mainTimeline</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1348,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1435,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1483,7 +1483,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1593,61 +1593,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1655,117 +1655,117 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>206</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>210</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>211</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>212</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>213</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>214</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>215</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>216</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>221</v>
       </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
         <v>208</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" t="s">
         <v>209</v>
       </c>
-      <c r="H3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" t="s">
-        <v>210</v>
-      </c>
       <c r="J3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" t="s">
         <v>223</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>224</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" t="s">
         <v>225</v>
       </c>
-      <c r="M3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P3" t="s">
-        <v>226</v>
-      </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1790,13 +1790,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>32</v>
@@ -1807,10 +1807,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>33</v>
@@ -1818,16 +1818,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1855,25 +1855,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>229</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>35</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
         <v>230</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1893,7 +1893,7 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -1908,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1934,10 +1934,10 @@
         <v>37</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>38</v>
@@ -1949,13 +1949,13 @@
         <v>39</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>40</v>
@@ -1971,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>50</v>
@@ -2173,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>52</v>
@@ -2191,7 +2191,7 @@
         <v>53</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2223,7 +2223,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,45 +2258,45 @@
         <v>44</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2332,94 +2332,94 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2449,67 +2449,67 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC4132C-120F-4B4B-92F6-5E91775D15BD}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2605,22 +2605,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2637,10 +2637,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -2701,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>80</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>22</v>
@@ -2822,13 +2822,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2837,13 +2837,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2898,19 +2898,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,16 +2918,16 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2938,13 +2938,13 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,13 +2972,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,10 +2986,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,10 +2997,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3041,30 +3041,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>31</v>
@@ -3073,24 +3073,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3105,34 +3105,34 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3142,7 +3142,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3158,16 +3158,16 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3187,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3202,10 +3202,10 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3241,109 +3241,109 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
         <v>251</v>
       </c>
-      <c r="E2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>252</v>
-      </c>
-      <c r="H2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
         <v>256</v>
       </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" t="s">
         <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
         <v>260</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
         <v>261</v>
       </c>
-      <c r="D4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="H4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3370,16 +3370,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,21 +3387,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
